--- a/submission/table_S8_otu_stats_dn1to1.xlsx
+++ b/submission/table_S8_otu_stats_dn1to1.xlsx
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.07019036233216848</v>
+        <v>0.01986389553062351</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02711053890012875</v>
+        <v>0.02299061982711054</v>
       </c>
       <c r="H3">
-        <v>0.0007050456746980565</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02167249095702287</v>
+        <v>0.0181166084237631</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00916997293675609</v>
+        <v>0.007540923303292256</v>
       </c>
       <c r="K5">
         <v>4.073406843337727e-05</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006253448592974067</v>
+        <v>0.00257494942063638</v>
       </c>
       <c r="K6">
         <v>4.073406843337727e-05</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01808595426399362</v>
+        <v>0.01370240941695788</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0008583164735454601</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01673717123413647</v>
+        <v>0.00340261173441236</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.002680049396988886</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="K9">
         <v>0.0001229450548378137</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0.001011587272392864</v>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02565753172705536</v>
+        <v>0.01885230825823064</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1128,22 +1128,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.0001532707988474036</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="F12">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>7.356998344675372e-05</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07501072895591931</v>
+        <v>0.07338605848813684</v>
       </c>
       <c r="I12">
-        <v>0.3486297590583042</v>
+        <v>0.3669302924406842</v>
       </c>
       <c r="J12">
-        <v>0.0439055151212591</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="K12">
         <v>0.0001774790510634766</v>
@@ -1215,22 +1215,22 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.00815400649868187</v>
+        <v>0.009012322972227331</v>
       </c>
       <c r="F13">
-        <v>0.01207007540923303</v>
+        <v>0.009748022806694869</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0002452332781558457</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.002101999527050106</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="K13">
         <v>0.0001900354994632352</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.08163969100606952</v>
+        <v>0.03844031635092882</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0008670748049081689</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0.0002270547893748948</v>
@@ -1377,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02167249095702287</v>
+        <v>0.01563362148243517</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.002417299456107622</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0.000334760078705482</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.002513641101097419</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.003341303414873398</v>
+        <v>0.002482986941327938</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.007816810741217584</v>
+        <v>0.005425786279198087</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0008276623137759794</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0006130831953896144</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.001900557905707805</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0004598123965422108</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0002207099503402612</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0.0003856890537079538</v>
@@ -1908,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002170314511679235</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1176659922751517</v>
+        <v>0.09977929004965974</v>
       </c>
       <c r="J24">
-        <v>0.0316350928821041</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K24">
         <v>0.0004771290369810187</v>
@@ -1992,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.0002299061982711054</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0004291582367727301</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I25">
-        <v>0.004529152105940776</v>
+        <v>0.004230274048188339</v>
       </c>
       <c r="J25">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0.0004771290369810187</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.01151370240941696</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2139,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.001961866225246766</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.002496124438372001</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K27">
         <v>0.0005154909214881472</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.0009196247930844216</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H28">
-        <v>0.004046349089571455</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="I28">
-        <v>0.0342560235423947</v>
+        <v>0.03577340445098399</v>
       </c>
       <c r="J28">
-        <v>0.01240179720959563</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="K28">
         <v>0.0005710917477503451</v>
@@ -2283,22 +2283,22 @@
         </is>
       </c>
       <c r="E29">
-        <v>9.196247930844216e-05</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.0002299061982711054</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.3012690822144565</v>
+        <v>0.2315615228986573</v>
       </c>
       <c r="H29">
-        <v>0.04916927227024707</v>
+        <v>0.03871620378885415</v>
       </c>
       <c r="I29">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0.0006564733929674192</v>
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.001256820550548709</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="F30">
-        <v>0.001034577892219974</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G30">
-        <v>0.005554533750229905</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.0002942799337870149</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H31">
-        <v>0.001103549751701306</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I31">
-        <v>0.0009885966525657532</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J31">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0.0006564733929674192</v>
@@ -2538,16 +2538,16 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.0002207099503402612</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.004383544847035743</v>
+        <v>0.002758874379253265</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0.0006564733929674192</v>
@@ -2610,19 +2610,19 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.01704371283183128</v>
+        <v>0.01535773404450984</v>
       </c>
       <c r="F33">
-        <v>0.0318649990803752</v>
+        <v>0.04230274048188339</v>
       </c>
       <c r="G33">
-        <v>0.03803568144197168</v>
+        <v>0.04138311568879897</v>
       </c>
       <c r="H33">
-        <v>0.001502053828704555</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="I33">
-        <v>0.0001149530991355527</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2703,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.007283428361228619</v>
+        <v>0.004782048924038992</v>
       </c>
       <c r="H34">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>7.8824982264379e-05</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0.0006734371606666215</v>
@@ -2778,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.0007816810741217583</v>
+        <v>0.0004598123965422107</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.0001532707988474036</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0.001632334007724848</v>
+        <v>0.001563362148243517</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2859,16 +2859,16 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0.0008889706333149408</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="I36">
-        <v>0.001379437189626632</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="J36">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0.0008775346186592183</v>
@@ -2943,16 +2943,16 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I37">
-        <v>0.0007356998344675372</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J37">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0.001117026768126208</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.00214579118386365</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="F38">
-        <v>0.0004368217767151002</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="G38">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.002391024462019496</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.0003941249113218949</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K39">
         <v>0.001134463310065704</v>
@@ -3177,16 +3177,16 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.1814419716755564</v>
+        <v>0.1843847710134265</v>
       </c>
       <c r="I40">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.01311998038133775</v>
+        <v>0.008828398013610447</v>
       </c>
       <c r="I41">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3327,22 +3327,22 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.0006743915149285758</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="F42">
-        <v>0.00255195880080927</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="G42">
-        <v>0.0001471399668935074</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.00085831647354546</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I42">
-        <v>0.009334191649806879</v>
+        <v>0.008828398013610447</v>
       </c>
       <c r="J42">
-        <v>0.000236474946793137</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K42">
         <v>0.001216437174074952</v>
@@ -3417,19 +3417,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.0008506529336030899</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0.001011587272392864</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="J43">
-        <v>7.8824982264379e-05</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0.001488933220130321</v>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.0002758874379253265</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="F44">
-        <v>0.0006207467353319846</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.0005057936361964318</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.01474027168343887</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="K45">
         <v>0.001688898849875878</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.002391024462019496</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="K46">
         <v>0.001688898849875878</v>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.0003310649255103917</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.003157378456256514</v>
+        <v>0.003862424130954571</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3759,22 +3759,22 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.00383176997118509</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="F48">
-        <v>0.002643921280117712</v>
+        <v>0.00257494942063638</v>
       </c>
       <c r="G48">
-        <v>0.02346882471951444</v>
+        <v>0.01710502115137024</v>
       </c>
       <c r="H48">
-        <v>0.006038869474587701</v>
+        <v>0.005701673717123414</v>
       </c>
       <c r="I48">
-        <v>0.02931304027956594</v>
+        <v>0.02547360676843848</v>
       </c>
       <c r="J48">
-        <v>0.001024724769436927</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0.001951934709988846</v>
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="E49">
-        <v>0.002207099503402612</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="F49">
-        <v>0.001034577892219974</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.000236474946793137</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0.002105911245850415</v>
@@ -3924,16 +3924,16 @@
         </is>
       </c>
       <c r="E50">
-        <v>0.00168597878732144</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="F50">
-        <v>0.007494942063638036</v>
+        <v>0.005885598675740298</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.0007663539942370179</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.001961866225246766</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.002421678621788977</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4125,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.007448960823983814</v>
+        <v>0.00469008644473055</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.0006568748522031583</v>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>0.002226821788052793</v>
@@ -4185,22 +4185,22 @@
         </is>
       </c>
       <c r="E54">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.000298878057752437</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="G54">
-        <v>0.0005885598675740298</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H54">
-        <v>0.0004291582367727301</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I54">
-        <v>0.003057752437005702</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="J54">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0.002226821788052793</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.007755502421678622</v>
+        <v>0.008184660658451352</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.001103549751701306</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.0004598123965422108</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4452,13 +4452,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.0006743915149285758</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I58">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0.002226821788052793</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0.00042915823677273</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0.0006743915149285758</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.00125682055054871</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.0004904665563116915</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0.000214579118386365</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0.002912145178100668</v>
+        <v>0.002666911899944823</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.0003985040770032493</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.0006437373551590951</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.0004291582367727301</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.0003371957574642879</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.0002452332781558458</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.001072895591931825</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.0004598123965422108</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5328,13 +5328,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.0008583164735454601</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0.00226887464160239</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0.002434688952549243</v>
@@ -5466,13 +5466,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.001685978787321439</v>
+        <v>0.001563362148243516</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.001261199716230064</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="K75">
         <v>0.002443466203044476</v>
@@ -5526,22 +5526,22 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.140671939182147</v>
+        <v>0.1166084237631047</v>
       </c>
       <c r="F76">
-        <v>0.06602906014346147</v>
+        <v>0.01710502115137024</v>
       </c>
       <c r="G76">
-        <v>0.0001103549751701306</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0.001011587272392864</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0.01689482119866523</v>
+        <v>0.002758874379253265</v>
       </c>
       <c r="K76">
         <v>0.002473644448572989</v>
@@ -5616,19 +5616,19 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.007012139047268715</v>
+        <v>0.005793636196431856</v>
       </c>
       <c r="G77">
-        <v>0.0002942799337870149</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H77">
-        <v>0.003709153332107167</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="I77">
-        <v>0.01423119367298142</v>
+        <v>0.009380172889461099</v>
       </c>
       <c r="J77">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0.002473644448572989</v>
@@ -5700,22 +5700,22 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.0009196247930844216</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="F78">
-        <v>0.0009885966525657532</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G78">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.0006437373551590951</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I78">
-        <v>0.004667095824903439</v>
+        <v>0.003862424130954571</v>
       </c>
       <c r="J78">
-        <v>0.0002890249349693896</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0.002515103549699544</v>
@@ -5787,19 +5787,19 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.001379437189626632</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="F79">
-        <v>0.0006667279749862056</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G79">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5871,22 +5871,22 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.002237753663172092</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="F80">
-        <v>0.002069155784439948</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0.0006130831953896144</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.0007619748285556635</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0.002637821017154576</v>
@@ -5961,16 +5961,16 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.0005885598675740298</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H81">
-        <v>0.000766353994237018</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.0004729498935862739</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K81">
         <v>0.002637821017154576</v>
@@ -6033,22 +6033,22 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.1052357304886273</v>
+        <v>0.08120286922935442</v>
       </c>
       <c r="F82">
-        <v>0.02572650358653669</v>
+        <v>0.02059959536509104</v>
       </c>
       <c r="G82">
-        <v>0.0001103549751701306</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0.1018944270737539</v>
+        <v>0.1116424498804488</v>
       </c>
       <c r="I82">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0.014766546677527</v>
+        <v>0.01544969652381828</v>
       </c>
       <c r="K82">
         <v>0.002997021418936383</v>
@@ -6126,16 +6126,16 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.01011587272392864</v>
+        <v>0.007356998344675372</v>
       </c>
       <c r="H83">
-        <v>0.002237753663172092</v>
+        <v>0.001747287106860401</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0.003186096323845882</v>
@@ -6207,7 +6207,7 @@
         <v>0.0001839249586168843</v>
       </c>
       <c r="H84">
-        <v>0.0006437373551590951</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6276,13 +6276,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0.001042241432162344</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.0008933497989962952</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K85">
         <v>0.003539792193648383</v>
@@ -6339,19 +6339,19 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0.001961866225246766</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.001891799574345096</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K86">
         <v>0.004219960237058228</v>
@@ -6429,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0.0002452332781558458</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I87">
-        <v>0.001747287106860401</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -6489,22 +6489,22 @@
         </is>
       </c>
       <c r="E88">
-        <v>0.006284102752743547</v>
+        <v>0.006253448592974067</v>
       </c>
       <c r="F88">
-        <v>0.002207099503402612</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0.001992520385016247</v>
+        <v>0.00211513702409417</v>
       </c>
       <c r="I88">
-        <v>0.00298878057752437</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0.001182374733965685</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="K88">
         <v>0.004284254209260588</v>
@@ -6576,19 +6576,19 @@
         </is>
       </c>
       <c r="E89">
-        <v>0.0004598123965422108</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F89">
-        <v>0.0003908405370608792</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G89">
-        <v>0.0006253448592974066</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H89">
-        <v>0.0003371957574642879</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I89">
-        <v>0.002299061982711054</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -6666,19 +6666,19 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.001356446569799522</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="G90">
-        <v>0.0002207099503402612</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H90">
-        <v>0.0006130831953896144</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0.001024724769436927</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0.004297195804389498</v>
@@ -6750,19 +6750,19 @@
         <v>0.0001839249586168843</v>
       </c>
       <c r="F91">
-        <v>0.002827846238734597</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="G91">
-        <v>0.002722089387529888</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="H91">
-        <v>0.000551774875850653</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I91">
-        <v>0.003885414750781681</v>
+        <v>0.00340261173441236</v>
       </c>
       <c r="J91">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0.00432097284857965</v>
@@ -6837,19 +6837,19 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.0001103549751701306</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0.001310465330145301</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="J92">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0.00432097284857965</v>
@@ -6924,19 +6924,19 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.0007586904542946477</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="G93">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H93">
-        <v>0.002391024462019496</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="I93">
-        <v>0.026830053338238</v>
+        <v>0.01655324627551959</v>
       </c>
       <c r="J93">
-        <v>0.001392574686670696</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="K93">
         <v>0.004484034843476892</v>
@@ -7014,16 +7014,16 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0.001042241432162344</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0.004488581824474077</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0.0002890249349693896</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0.004508625281352241</v>
@@ -7161,13 +7161,13 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.001066764759977929</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0.0009656060327386426</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.0007356998344675373</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.002648519404083134</v>
+        <v>0.002942799337870149</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.0002758874379253265</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>0.0006989148427441604</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.0003310649255103917</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -7515,16 +7515,16 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.0003310649255103917</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H102">
-        <v>0.001011587272392864</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0.0003415749231456423</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K102">
         <v>0.004646774573881717</v>
@@ -7587,22 +7587,22 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.00042915823677273</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="F103">
-        <v>0.0005747654956777635</v>
+        <v>0.0004598123965422107</v>
       </c>
       <c r="G103">
-        <v>0.001949604561338974</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="H103">
-        <v>0.0001226166390779229</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0.002620930660290601</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="J103">
-        <v>0.0009984497753488006</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="K103">
         <v>0.004897820734499316</v>
@@ -7683,13 +7683,13 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>0.001777941266629882</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="I104">
-        <v>0.0001149530991355527</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J104">
-        <v>0.001156099739877559</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K104">
         <v>0.004897820734499316</v>
@@ -7758,16 +7758,16 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>0.001440745509165594</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.000315299929057516</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0.004897820734499316</v>
@@ -7830,22 +7830,22 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.02007847464900987</v>
+        <v>0.01011587272392864</v>
       </c>
       <c r="F106">
-        <v>0.01947305499356263</v>
+        <v>0.01020783520323708</v>
       </c>
       <c r="G106">
-        <v>0.01850285083685856</v>
+        <v>0.01508184660658451</v>
       </c>
       <c r="H106">
-        <v>0.01226166390779229</v>
+        <v>0.01011587272392864</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.003520849207808928</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K106">
         <v>0.005755392039237707</v>
@@ -7920,19 +7920,19 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.002643921280117712</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="G107">
-        <v>0.006952363435718227</v>
+        <v>0.007356998344675372</v>
       </c>
       <c r="H107">
-        <v>0.0005824290356201337</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I107">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0.001445124674846948</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="K107">
         <v>0.005779388194853229</v>
@@ -8007,19 +8007,19 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0.002820182698792226</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="I108">
-        <v>0.001954202685304396</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="J108">
-        <v>0.0006831498462912845</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0.005779388194853229</v>
@@ -8088,10 +8088,10 @@
         </is>
       </c>
       <c r="E109">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -8100,10 +8100,10 @@
         <v>0.0001839249586168843</v>
       </c>
       <c r="I109">
-        <v>0.0008046716939488688</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="J109">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>0.005779388194853229</v>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="E110">
-        <v>0.0001226166390779229</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.001126540371528416</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="G110">
-        <v>0.001324259702041567</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0.006955534495124731</v>
@@ -8265,16 +8265,16 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0.0006130831953896144</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I111">
-        <v>0.002069155784439948</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="J111">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0.007031487493483336</v>
@@ -8343,22 +8343,22 @@
         </is>
       </c>
       <c r="E112">
-        <v>0.0001532707988474036</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="F112">
-        <v>0.0008506529336030899</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="G112">
-        <v>0.0006621298510207835</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="H112">
-        <v>9.196247930844216e-05</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0.001103549751701306</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="J112">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="K112">
         <v>0.007162788047092992</v>
@@ -8430,22 +8430,22 @@
         </is>
       </c>
       <c r="E113">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0.001379437189626632</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="I113">
-        <v>0.00983998528600331</v>
+        <v>0.001563362148243517</v>
       </c>
       <c r="J113">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0.007369221650440888</v>
@@ -8523,16 +8523,16 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.001140334743424683</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H114">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I114">
-        <v>0.001425418429280853</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="J114">
-        <v>0.0004729498935862739</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0.007680348662067032</v>
@@ -8601,22 +8601,22 @@
         </is>
       </c>
       <c r="E115">
-        <v>0.003126724296487033</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="F115">
-        <v>0.001218502850836858</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="G115">
-        <v>0.002611734412359757</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="H115">
-        <v>0.0003985040770032494</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0.001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K115">
         <v>0.007806586149223775</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0.002680049396988886</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="K116">
         <v>0.007806586149223775</v>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0.01253317218003626</v>
+        <v>0.005885598675740298</v>
       </c>
       <c r="K117">
         <v>0.007806586149223775</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0.001418849680758822</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="K118">
         <v>0.007806586149223775</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0.009590372842166111</v>
+        <v>0.004414199006805224</v>
       </c>
       <c r="K119">
         <v>0.007806586149223775</v>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0.005176173835360886</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="K120">
         <v>0.007806586149223775</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0.004545573977245855</v>
+        <v>0.003126724296487033</v>
       </c>
       <c r="K121">
         <v>0.007806586149223775</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0.0008145248167319162</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K122">
         <v>0.007806586149223775</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0.003704774166425812</v>
+        <v>0.003494574213720802</v>
       </c>
       <c r="K123">
         <v>0.007806586149223775</v>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0.003573399195985181</v>
+        <v>0.004046349089571455</v>
       </c>
       <c r="K124">
         <v>0.007806586149223775</v>
@@ -9201,22 +9201,22 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.001532707988474036</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="F125">
-        <v>0.003517564833547912</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0.0003065415976948072</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I125">
-        <v>0.01441511863159831</v>
+        <v>0.003678499172337686</v>
       </c>
       <c r="J125">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K125">
         <v>0.007974392423872836</v>
@@ -9291,19 +9291,19 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0.0004368217767151002</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="G126">
-        <v>0.003273864263380541</v>
+        <v>0.002758874379253265</v>
       </c>
       <c r="H126">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I126">
-        <v>0.002873827478388818</v>
+        <v>0.001379437189626632</v>
       </c>
       <c r="J126">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K126">
         <v>0.008172682822481857</v>
@@ -9384,10 +9384,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0.002544295260866899</v>
+        <v>0.002850836858561707</v>
       </c>
       <c r="I127">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -9444,10 +9444,10 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.001594016308012997</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="F128">
-        <v>0.004161302188707008</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -9456,10 +9456,10 @@
         <v>9.196247930844215e-05</v>
       </c>
       <c r="I128">
-        <v>0.00213812764392128</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="J128">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>0.008233678540203987</v>
@@ -9534,19 +9534,19 @@
         <v>0.0001839249586168843</v>
       </c>
       <c r="F129">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I129">
-        <v>0.001195512231009748</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J129">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K129">
         <v>0.008233678540203987</v>
@@ -9618,22 +9618,22 @@
         </is>
       </c>
       <c r="E130">
-        <v>0.0005211207160811722</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.005379805039543866</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0.0003065415976948072</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K130">
         <v>0.008287668118628572</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0.002237753663172093</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>0.0009458997871725479</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K131">
         <v>0.008287668118628572</v>
@@ -9780,13 +9780,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>0.0007050456746980565</v>
+        <v>0.0004598123965422107</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>0.008287668118628572</v>
@@ -9840,16 +9840,16 @@
         </is>
       </c>
       <c r="E133">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.0002069155784439949</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0.001072895591931825</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -9918,22 +9918,22 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.0160627797192079</v>
+        <v>0.009564097848077983</v>
       </c>
       <c r="F134">
-        <v>0.1094813316167004</v>
+        <v>0.09748022806694868</v>
       </c>
       <c r="G134">
-        <v>0.071546808901968</v>
+        <v>0.02096744528232481</v>
       </c>
       <c r="H134">
-        <v>0.01121942247562994</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="I134">
-        <v>0.002322052602538165</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J134">
-        <v>0.04348511521584908</v>
+        <v>0.009564097848077983</v>
       </c>
       <c r="K134">
         <v>0.008769568039968678</v>
@@ -10005,22 +10005,22 @@
         </is>
       </c>
       <c r="E135">
-        <v>0.008276623137759793</v>
+        <v>0.003954386610263013</v>
       </c>
       <c r="F135">
-        <v>0.004598123965422108</v>
+        <v>0.004414199006805224</v>
       </c>
       <c r="G135">
-        <v>0.006143093617803935</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="H135">
-        <v>0.0003065415976948072</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I135">
-        <v>0.0005287842560235423</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J135">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0.008769568039968678</v>
@@ -10101,13 +10101,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0.001134203911470787</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K136">
         <v>0.008769568039968678</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>0.008769568039968678</v>
@@ -10230,22 +10230,22 @@
         </is>
       </c>
       <c r="E138">
-        <v>0.001931212065477285</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="F138">
-        <v>0.003678499172337686</v>
+        <v>0.003034761817178591</v>
       </c>
       <c r="G138">
-        <v>0.002685304395806511</v>
+        <v>0.00257494942063638</v>
       </c>
       <c r="H138">
-        <v>0.001685978787321439</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="I138">
-        <v>0.005034945742137208</v>
+        <v>0.005425786279198087</v>
       </c>
       <c r="J138">
-        <v>0.0008933497989962952</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="K138">
         <v>0.01022891653762473</v>
@@ -10320,13 +10320,13 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0.0001226166390779229</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -10392,16 +10392,16 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0.002728220219483784</v>
+        <v>0.002666911899944823</v>
       </c>
       <c r="I140">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0.01177582426691612</v>
@@ -10470,22 +10470,22 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.0009196247930844216</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="F141">
-        <v>0.001494390288762185</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="G141">
-        <v>0.0005885598675740298</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H141">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0.0006207467353319846</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J141">
-        <v>0.0004992248876744003</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K141">
         <v>0.01258787467882439</v>
@@ -10566,13 +10566,13 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.002605603580405861</v>
+        <v>0.0008276623137759793</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
-        <v>0.0001313749704406317</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>0.01258787467882439</v>
@@ -10635,13 +10635,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0.0006437373551590951</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>0.0002890249349693896</v>
+        <v>0</v>
       </c>
       <c r="K143">
         <v>0.01264452602772686</v>
@@ -10698,13 +10698,13 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0.0003448592974066581</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0.00211513702409417</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -10767,19 +10767,19 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0.001333455949972411</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0.003341303414873398</v>
+        <v>0.002666911899944823</v>
       </c>
       <c r="I145">
-        <v>0.0001379437189626632</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J145">
-        <v>0.000551774875850653</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K145">
         <v>0.01292311089359046</v>
@@ -10851,19 +10851,19 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0.0003218686775795475</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>0.00305315431304028</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="H146">
-        <v>0.0006743915149285758</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I146">
-        <v>0.00427625528784256</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="J146">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K146">
         <v>0.01292311089359046</v>
@@ -10938,19 +10938,19 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0.005149898841272761</v>
+        <v>0.002482986941327938</v>
       </c>
       <c r="G147">
-        <v>0.0003310649255103918</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>0.005149898841272761</v>
+        <v>0.00340261173441236</v>
       </c>
       <c r="I147">
-        <v>0.01646128379621115</v>
+        <v>0.009931947765311751</v>
       </c>
       <c r="J147">
-        <v>0.001182374733965685</v>
+        <v>0</v>
       </c>
       <c r="K147">
         <v>0.01322017758249529</v>
@@ -11022,22 +11022,22 @@
         </is>
       </c>
       <c r="E148">
-        <v>0.0006437373551590951</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F148">
-        <v>0.0005287842560235423</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="G148">
-        <v>0.0004046349089571455</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>0.0005211207160811722</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="I148">
-        <v>0.003517564833547912</v>
+        <v>0.003862424130954571</v>
       </c>
       <c r="J148">
-        <v>0.0003415749231456423</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>0.01322017758249529</v>
@@ -11109,22 +11109,22 @@
         </is>
       </c>
       <c r="E149">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.0001379437189626632</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0.00168597878732144</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="I149">
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0.0001313749704406317</v>
+        <v>0</v>
       </c>
       <c r="K149">
         <v>0.01352505643805316</v>
@@ -11196,19 +11196,19 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0.002459996321500828</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="G150">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>0.0009196247930844216</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0.001471399668935074</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0.01352505643805316</v>
@@ -11283,16 +11283,16 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H151">
-        <v>0.0001532707988474036</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0.01427670545706814</v>
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>7.356998344675372e-05</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>0.0001839249586168843</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0.000236474946793137</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <v>0.01427834233716974</v>
@@ -11433,22 +11433,22 @@
         </is>
       </c>
       <c r="E153">
-        <v>0.01382502605603581</v>
+        <v>0.01342652197903255</v>
       </c>
       <c r="F153">
-        <v>0.02476089755379805</v>
+        <v>0.02565753172705536</v>
       </c>
       <c r="G153">
-        <v>0.02935442339525474</v>
+        <v>0.03053154313040279</v>
       </c>
       <c r="H153">
-        <v>0.0004291582367727301</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>0.02993378701489792</v>
+        <v>0.002850836858561707</v>
       </c>
       <c r="J153">
-        <v>0.008118973173231035</v>
+        <v>0.00551774875850653</v>
       </c>
       <c r="K153">
         <v>0.0161506418532933</v>
@@ -11526,13 +11526,13 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>0.003788854147507817</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H154">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>0.001057568512047085</v>
+        <v>0</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0.008399239776837717</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -11655,10 +11655,10 @@
         </is>
       </c>
       <c r="E156">
-        <v>0.000214579118386365</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="F156">
-        <v>0.0004368217767151002</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -11667,10 +11667,10 @@
         <v>0</v>
       </c>
       <c r="I156">
-        <v>0.000597756115504874</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J156">
-        <v>0.000315299929057516</v>
+        <v>0</v>
       </c>
       <c r="K156">
         <v>0.01641041239001079</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0.001594016308012997</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -11805,13 +11805,13 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>0.0002758874379253265</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K158">
         <v>0.01641041239001079</v>
@@ -11874,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0.000214579118386365</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0.0006743915149285758</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>0.0003371957574642879</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0.0001532707988474036</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0.000214579118386365</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -12552,7 +12552,7 @@
         <v>0.0002758874379253265</v>
       </c>
       <c r="F171">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0.000298878057752437</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>7.8824982264379e-05</v>
+        <v>0</v>
       </c>
       <c r="K172">
         <v>0.01696843466341484</v>
@@ -12696,13 +12696,13 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0.0002452332781558458</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K173">
         <v>0.01715757155541586</v>
@@ -12762,16 +12762,16 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>0.00117711973514806</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="H174">
-        <v>0.0007663539942370179</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K174">
         <v>0.01716211205896758</v>
@@ -12843,13 +12843,13 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0.0007127092146404267</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J175">
-        <v>0.0003152999290575159</v>
+        <v>0</v>
       </c>
       <c r="K175">
         <v>0.01732016643282348</v>
@@ -12918,10 +12918,10 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0.001765679602722089</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="H176">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -12987,10 +12987,10 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0.0005885598675740298</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H177">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -13053,13 +13053,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0.0004598123965422107</v>
+        <v>0</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>0.0007050456746980565</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -13119,7 +13119,7 @@
         </is>
       </c>
       <c r="E179">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -13128,13 +13128,13 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>0.001961866225246766</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="I179">
-        <v>0.0006667279749862056</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="J179">
-        <v>0.002180824509314486</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K179">
         <v>0.01823436334710698</v>
@@ -13203,22 +13203,22 @@
         </is>
       </c>
       <c r="E180">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0.0001532707988474036</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I180">
-        <v>0.001563362148243517</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="J180">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K180">
         <v>0.01863931616515885</v>
@@ -13299,13 +13299,13 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>0.0003985040770032493</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181">
-        <v>0.0002101999527050106</v>
+        <v>0</v>
       </c>
       <c r="K181">
         <v>0.01863931616515885</v>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0.00996873275703513</v>
+        <v>0.007173073386058488</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -13374,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>0.0003678499172337686</v>
+        <v>0</v>
       </c>
       <c r="K182">
         <v>0.01869491545660769</v>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="E183">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -13437,13 +13437,13 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>0.003862424130954571</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K183">
         <v>0.01902927041112257</v>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="I184">
-        <v>0.002758874379253265</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>0.0002758874379253265</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="I186">
-        <v>0.0002528968180982159</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0.005080926981791429</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -13737,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0.0001149530991355527</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="I189">
-        <v>0.0001609343387897738</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -13851,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>0.0003678499172337686</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -13911,13 +13911,13 @@
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0.1617436086076881</v>
+        <v>0.219422475629943</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -13983,13 +13983,13 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0.0003065415976948072</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I192">
-        <v>0.0001149530991355527</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>0.0006305998581150319</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K192">
         <v>0.0199506916074326</v>
@@ -14052,22 +14052,22 @@
         </is>
       </c>
       <c r="E193">
-        <v>0.02072221200416897</v>
+        <v>0.006621298510207835</v>
       </c>
       <c r="F193">
-        <v>0.08423763104653301</v>
+        <v>0.03071546808901968</v>
       </c>
       <c r="G193">
-        <v>0.0003678499172337686</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H193">
-        <v>0.002513641101097419</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I193">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="J193">
-        <v>0.1028928768491027</v>
+        <v>0.04211881552326651</v>
       </c>
       <c r="K193">
         <v>0.02036847756332016</v>
@@ -14148,13 +14148,13 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>0.001655324627551959</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>0.0005780498699387793</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K194">
         <v>0.02061947112608224</v>
@@ -14211,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0.0001839249586168843</v>
@@ -14277,22 +14277,22 @@
         </is>
       </c>
       <c r="E196">
-        <v>0.002758874379253265</v>
+        <v>0.00211513702409417</v>
       </c>
       <c r="F196">
-        <v>0.002345043222365275</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J196">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K196">
         <v>0.02061947112608224</v>
@@ -14367,16 +14367,16 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0.0001149530991355527</v>
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>0.001066764759977929</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="H197">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I197">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -14457,13 +14457,13 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198">
-        <v>0.002627499408812633</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="K198">
         <v>0.02088793921054919</v>
@@ -14526,13 +14526,13 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199">
-        <v>0.001839249586168843</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K199">
         <v>0.02088793921054919</v>
@@ -14586,22 +14586,22 @@
         </is>
       </c>
       <c r="E200">
-        <v>0.0005211207160811722</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="F200">
-        <v>0.002046165164612838</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="G200">
-        <v>0.001949604561338974</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="H200">
-        <v>0.0009809331126233831</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I200">
-        <v>0.002184108883575501</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="J200">
-        <v>0.0003415749231456423</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K200">
         <v>0.02227051237658014</v>
@@ -14673,22 +14673,22 @@
         </is>
       </c>
       <c r="E201">
-        <v>0.000214579118386365</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.000551774875850653</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G201">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>0.000214579118386365</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>0.001149530991355527</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="J201">
-        <v>0.0001313749704406317</v>
+        <v>0</v>
       </c>
       <c r="K201">
         <v>0.02227051237658014</v>
@@ -14769,13 +14769,13 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202">
-        <v>0.0002627499408812633</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K202">
         <v>0.02227051237658014</v>
@@ -14829,22 +14829,22 @@
         </is>
       </c>
       <c r="E203">
-        <v>0.0001226166390779229</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.0004828030163693213</v>
+        <v>0</v>
       </c>
       <c r="G203">
         <v>0.000551774875850653</v>
       </c>
       <c r="H203">
-        <v>0.00300410765740911</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="I203">
-        <v>0.002505977561155049</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="J203">
-        <v>0.001812974592080717</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="K203">
         <v>0.02232203208808719</v>
@@ -14928,10 +14928,10 @@
         <v>0</v>
       </c>
       <c r="I204">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J204">
-        <v>0.01500302162432014</v>
+        <v>0.00551774875850653</v>
       </c>
       <c r="K204">
         <v>0.02310519873452981</v>
@@ -14994,13 +14994,13 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205">
-        <v>0.001629049633463832</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K205">
         <v>0.02377917781213378</v>
@@ -15054,7 +15054,7 @@
         </is>
       </c>
       <c r="E206">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -15063,13 +15063,13 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>0.03191098032002943</v>
+        <v>0.002666911899944823</v>
       </c>
       <c r="I206">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="J206">
-        <v>0.006989148427441604</v>
+        <v>0</v>
       </c>
       <c r="K206">
         <v>0.02380248286085597</v>
@@ -15138,16 +15138,16 @@
         </is>
       </c>
       <c r="E207">
-        <v>0.0003985040770032493</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F207">
-        <v>0.0002528968180982159</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="G207">
-        <v>0.000514989884127276</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H207">
-        <v>6.130831953896143e-05</v>
+        <v>0</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -15222,10 +15222,10 @@
         </is>
       </c>
       <c r="E208">
-        <v>0.0006130831953896144</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="F208">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>7.8824982264379e-05</v>
+        <v>0</v>
       </c>
       <c r="K208">
         <v>0.02415090011904323</v>
@@ -15300,22 +15300,22 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.0004904665563116915</v>
+        <v>0.0004598123965422108</v>
       </c>
       <c r="F209">
-        <v>0.001425418429280853</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="G209">
-        <v>0.000514989884127276</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="H209">
-        <v>0.0005211207160811722</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I209">
-        <v>0.001586352768070627</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="J209">
-        <v>0.0002101999527050106</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K209">
         <v>0.02479058291417231</v>
@@ -15387,16 +15387,16 @@
         </is>
       </c>
       <c r="E210">
-        <v>0.03506835877628594</v>
+        <v>0.03255471767518852</v>
       </c>
       <c r="F210">
-        <v>0.02471491631414383</v>
+        <v>0.02161118263748391</v>
       </c>
       <c r="G210">
         <v>0</v>
       </c>
       <c r="H210">
-        <v>0.002207099503402612</v>
+        <v>0</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -15465,22 +15465,22 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.0003985040770032494</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="F211">
-        <v>0.0008966341732573111</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="G211">
-        <v>0.001140334743424683</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="H211">
-        <v>0.0003065415976948072</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I211">
-        <v>0.001586352768070627</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="J211">
-        <v>0.0002890249349693896</v>
+        <v>0</v>
       </c>
       <c r="K211">
         <v>0.02634940069312391</v>
@@ -15558,16 +15558,16 @@
         <v>0</v>
       </c>
       <c r="G212">
-        <v>0.00246459444546625</v>
+        <v>0.001471399668935074</v>
       </c>
       <c r="H212">
-        <v>0.0009196247930844214</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I212">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J212">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K212">
         <v>0.02644958772146637</v>
@@ -15642,16 +15642,16 @@
         <v>0</v>
       </c>
       <c r="G213">
-        <v>0.0005885598675740298</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>0.0004904665563116914</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I213">
         <v>0</v>
       </c>
       <c r="J213">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K213">
         <v>0.02719520819347336</v>
@@ -15714,7 +15714,7 @@
         </is>
       </c>
       <c r="E214">
-        <v>0.0006130831953896144</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -15783,19 +15783,19 @@
         </is>
       </c>
       <c r="E215">
-        <v>0.0008583164735454601</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="F215">
-        <v>0.002253080743056833</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G215">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>0.003126724296487033</v>
+        <v>0.001563362148243517</v>
       </c>
       <c r="I215">
-        <v>0.0004138311568879897</v>
+        <v>0</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -15873,19 +15873,19 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>0.001954202685304396</v>
+        <v>0</v>
       </c>
       <c r="G216">
-        <v>0.001802464594445466</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="H216">
-        <v>0.0005211207160811722</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
-        <v>0.000315299929057516</v>
+        <v>0</v>
       </c>
       <c r="K216">
         <v>0.02979299465925473</v>
@@ -15963,13 +15963,13 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>0.0005211207160811722</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I217">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K217">
         <v>0.02988309454076479</v>
@@ -16035,19 +16035,19 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>0.0009196247930844216</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I218">
         <v>0</v>
       </c>
       <c r="J218">
-        <v>0.0003678499172337687</v>
+        <v>0</v>
       </c>
       <c r="K218">
         <v>0.03088136209734311</v>
@@ -16110,22 +16110,22 @@
         </is>
       </c>
       <c r="E219">
-        <v>0.0002758874379253265</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="F219">
-        <v>0.0002758874379253265</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0.0005211207160811722</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I219">
-        <v>0.003793452271473239</v>
+        <v>0.002207099503402612</v>
       </c>
       <c r="J219">
-        <v>0.0007356998344675372</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="K219">
         <v>0.03184410579798232</v>
@@ -16197,22 +16197,22 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.1532401446876341</v>
+        <v>0.1056648887254</v>
       </c>
       <c r="F220">
-        <v>0.04651002391024462</v>
+        <v>0.03614125436821777</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220">
-        <v>0.006651952669977316</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="J220">
-        <v>0.02890249349693896</v>
+        <v>0.009564097848077983</v>
       </c>
       <c r="K220">
         <v>0.03250913598254667</v>
@@ -16290,16 +16290,16 @@
         <v>0.0003678499172337686</v>
       </c>
       <c r="G221">
-        <v>0.000257494942063638</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H221">
-        <v>9.196247930844216e-05</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0.001034577892219974</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="J221">
-        <v>0.000157649964528758</v>
+        <v>0</v>
       </c>
       <c r="K221">
         <v>0.03329198993807679</v>
@@ -16371,22 +16371,22 @@
         </is>
       </c>
       <c r="E222">
+        <v>0.000551774875850653</v>
+      </c>
+      <c r="F222">
         <v>0.001011587272392864</v>
       </c>
-      <c r="F222">
-        <v>0.001149530991355527</v>
-      </c>
       <c r="G222">
-        <v>0.0004046349089571455</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H222">
-        <v>0.0004904665563116914</v>
+        <v>0.0004598123965422107</v>
       </c>
       <c r="I222">
-        <v>0.001333455949972411</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="J222">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K222">
         <v>0.03340149364648813</v>
@@ -16458,7 +16458,7 @@
         </is>
       </c>
       <c r="E223">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>0.0001839249586168843</v>
@@ -16467,13 +16467,13 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>0.000214579118386365</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I223">
-        <v>0.002414015081846607</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="J223">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K223">
         <v>0.03844548290230105</v>
@@ -16560,7 +16560,7 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>0.002285924485666991</v>
+        <v>0</v>
       </c>
       <c r="K224">
         <v>0.03852379324994462</v>
@@ -16602,22 +16602,22 @@
         </is>
       </c>
       <c r="E225">
-        <v>0.0003985040770032493</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="F225">
-        <v>0.001816258966341733</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="G225">
-        <v>0.0008092698179142909</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="H225">
-        <v>0.001042241432162344</v>
+        <v>0.001011587272392864</v>
       </c>
       <c r="I225">
-        <v>0.0001609343387897738</v>
+        <v>0</v>
       </c>
       <c r="J225">
-        <v>0.0006568748522031582</v>
+        <v>0</v>
       </c>
       <c r="K225">
         <v>0.03852379324994462</v>
@@ -16704,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>0.001234924722141937</v>
+        <v>0</v>
       </c>
       <c r="K226">
         <v>0.03852379324994462</v>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>0.02151922015817546</v>
+        <v>0</v>
       </c>
       <c r="K227">
         <v>0.03852379324994462</v>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <v>0.007961323208702279</v>
+        <v>0</v>
       </c>
       <c r="K228">
         <v>0.03852379324994462</v>
@@ -16866,16 +16866,16 @@
         <v>0</v>
       </c>
       <c r="G229">
-        <v>7.356998344675372e-05</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>0.0004598123965422108</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229">
-        <v>0.0003678499172337687</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K229">
         <v>0.03852379324994462</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>0.006595023516119709</v>
+        <v>0</v>
       </c>
       <c r="K230">
         <v>0.03852379324994462</v>
@@ -16995,10 +16995,10 @@
         </is>
       </c>
       <c r="E231">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.0001149530991355527</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K231">
         <v>0.03852379324994462</v>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <v>0.003100449302398907</v>
+        <v>0</v>
       </c>
       <c r="K232">
         <v>0.03852379324994462</v>
@@ -17145,7 +17145,7 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>0.002417299456107623</v>
+        <v>0</v>
       </c>
       <c r="K233">
         <v>0.03852379324994462</v>
@@ -17202,7 +17202,7 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>0.002207099503402612</v>
+        <v>0</v>
       </c>
       <c r="K234">
         <v>0.03852379324994462</v>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>0.00257494942063638</v>
+        <v>0</v>
       </c>
       <c r="K235">
         <v>0.03852379324994462</v>
@@ -17307,16 +17307,16 @@
         <v>0</v>
       </c>
       <c r="G236">
-        <v>0.000514989884127276</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="H236">
-        <v>0.0001226166390779229</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K236">
         <v>0.03852379324994462</v>
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>0.001681599621640085</v>
+        <v>0</v>
       </c>
       <c r="K237">
         <v>0.03852379324994462</v>
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>0.000630599858115032</v>
+        <v>0</v>
       </c>
       <c r="K238">
         <v>0.03852379324994462</v>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>0.001418849680758822</v>
+        <v>0</v>
       </c>
       <c r="K239">
         <v>0.03852379324994462</v>
@@ -17565,7 +17565,7 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>0.001261199716230064</v>
+        <v>0</v>
       </c>
       <c r="K240">
         <v>0.03852379324994462</v>
@@ -17622,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>0.0009721747812606742</v>
+        <v>0</v>
       </c>
       <c r="K241">
         <v>0.03852379324994462</v>
@@ -17679,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>0.001129824745789432</v>
+        <v>0</v>
       </c>
       <c r="K242">
         <v>0.03852379324994462</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>0.0009984497753488006</v>
+        <v>0</v>
       </c>
       <c r="K243">
         <v>0.03852379324994462</v>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <v>0.000315299929057516</v>
+        <v>0</v>
       </c>
       <c r="K244">
         <v>0.03852379324994462</v>
@@ -17844,13 +17844,13 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0.0001532707988474036</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I245">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J245">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="K245">
         <v>0.03852379324994462</v>
@@ -17928,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <v>0.0005780498699387792</v>
+        <v>0</v>
       </c>
       <c r="K246">
         <v>0.03852379324994462</v>
@@ -17985,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="J247">
-        <v>0.0004203999054100213</v>
+        <v>0</v>
       </c>
       <c r="K247">
         <v>0.03852379324994462</v>
@@ -18036,13 +18036,13 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>0.0003065415976948072</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I248">
-        <v>0.0001149530991355527</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="K248">
         <v>0.03852379324994462</v>
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>0.0004466748994981476</v>
+        <v>0</v>
       </c>
       <c r="K249">
         <v>0.03852379324994462</v>
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>0.0004992248876744003</v>
+        <v>0</v>
       </c>
       <c r="K250">
         <v>0.03852379324994462</v>
@@ -18234,7 +18234,7 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>0.0003415749231456423</v>
+        <v>0</v>
       </c>
       <c r="K251">
         <v>0.03852379324994462</v>
@@ -18291,7 +18291,7 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>0.0002890249349693896</v>
+        <v>0</v>
       </c>
       <c r="K252">
         <v>0.03852379324994462</v>
@@ -18348,7 +18348,7 @@
         <v>0</v>
       </c>
       <c r="J253">
-        <v>0.0002101999527050106</v>
+        <v>0</v>
       </c>
       <c r="K253">
         <v>0.03852379324994462</v>
@@ -18405,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K254">
         <v>0.03852379324994462</v>
@@ -18462,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <v>0.0001050999763525053</v>
+        <v>0</v>
       </c>
       <c r="K255">
         <v>0.03852379324994462</v>
@@ -18507,19 +18507,19 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0.00128747471031819</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I256">
         <v>0</v>
       </c>
       <c r="J256">
-        <v>0.000236474946793137</v>
+        <v>0</v>
       </c>
       <c r="K256">
         <v>0.04144955728181022</v>
@@ -18591,13 +18591,13 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>0.0001839249586168843</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I257">
         <v>0</v>
       </c>
       <c r="J257">
-        <v>7.882498226437898e-05</v>
+        <v>0</v>
       </c>
       <c r="K257">
         <v>0.04372177538513448</v>
@@ -18651,22 +18651,22 @@
         </is>
       </c>
       <c r="E258">
-        <v>0.02084482864324689</v>
+        <v>0.01912819569615597</v>
       </c>
       <c r="F258">
-        <v>0.02011679234872172</v>
+        <v>0.01894427073753908</v>
       </c>
       <c r="G258">
-        <v>0.00257494942063638</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H258">
-        <v>0.04766721844154252</v>
+        <v>0.04772852676108148</v>
       </c>
       <c r="I258">
-        <v>0.04692385506713261</v>
+        <v>0.03430200478204892</v>
       </c>
       <c r="J258">
-        <v>0.03021624320134528</v>
+        <v>0.02869229354423395</v>
       </c>
       <c r="K258">
         <v>0.04546705687798522</v>
@@ -18741,19 +18741,19 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G259">
-        <v>0.0001471399668935074</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H259">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="I259">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="J259">
-        <v>0.005097348853096508</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="K259">
         <v>0.04546705687798522</v>
@@ -18825,22 +18825,22 @@
         </is>
       </c>
       <c r="E260">
-        <v>0.001379437189626632</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="F260">
-        <v>0.001632334007724848</v>
+        <v>0</v>
       </c>
       <c r="G260">
-        <v>0.01327938201213905</v>
+        <v>0.01232297222733125</v>
       </c>
       <c r="H260">
-        <v>0.004168965728649378</v>
+        <v>0.002391024462019496</v>
       </c>
       <c r="I260">
-        <v>0.005241861320581203</v>
+        <v>0.001931212065477285</v>
       </c>
       <c r="J260">
-        <v>0.0009984497753488006</v>
+        <v>0</v>
       </c>
       <c r="K260">
         <v>0.04546705687798522</v>
@@ -18912,22 +18912,22 @@
         </is>
       </c>
       <c r="E261">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.00126448409049108</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0.001594016308012997</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I261">
         <v>0</v>
       </c>
       <c r="J261">
-        <v>0.0009721747812606742</v>
+        <v>0</v>
       </c>
       <c r="K261">
         <v>0.04546705687798522</v>
@@ -19005,13 +19005,13 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0.0006130831953896144</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I262">
         <v>0</v>
       </c>
       <c r="J262">
-        <v>0.0007356998344675372</v>
+        <v>0</v>
       </c>
       <c r="K262">
         <v>0.04546705687798522</v>
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="G263">
-        <v>0.002059959536509104</v>
+        <v>0</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="G264">
-        <v>0.0008092698179142909</v>
+        <v>0</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -19185,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="G265">
-        <v>7.356998344675372e-05</v>
+        <v>0</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="G266">
-        <v>0.000257494942063638</v>
+        <v>0</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -19299,7 +19299,7 @@
         <v>0</v>
       </c>
       <c r="G267">
-        <v>0.0003310649255103917</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -19350,22 +19350,22 @@
         </is>
       </c>
       <c r="E268">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="F268">
-        <v>0.0002299061982711054</v>
+        <v>0</v>
       </c>
       <c r="G268">
         <v>0</v>
       </c>
       <c r="H268">
-        <v>0.0002452332781558458</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I268">
-        <v>0.0007356998344675372</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="J268">
-        <v>0.0001839249586168843</v>
+        <v>0</v>
       </c>
       <c r="K268">
         <v>0.0471394515146699</v>
@@ -19437,7 +19437,7 @@
         </is>
       </c>
       <c r="E269">
-        <v>0.001532707988474036</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>9.196247930844216e-05</v>
+        <v>0</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -19521,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>0.01480595916865919</v>
+        <v>0.004414199006805224</v>
       </c>
       <c r="K270">
         <v>6.274149096621824e-05</v>
@@ -19578,7 +19578,7 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <v>0.03454723806020477</v>
+        <v>0.03209490527864631</v>
       </c>
       <c r="K271">
         <v>6.274149096621824e-05</v>
@@ -19629,13 +19629,13 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>0.0122494022438845</v>
+        <v>0.009012322972227331</v>
       </c>
       <c r="I272">
         <v>0</v>
       </c>
       <c r="J272">
-        <v>0.02795659370976641</v>
+        <v>0.008828398013610447</v>
       </c>
       <c r="K272">
         <v>6.586962820313799e-05</v>
@@ -19698,13 +19698,13 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>0.001692109619275336</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="I273">
         <v>0</v>
       </c>
       <c r="J273">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="K273">
         <v>0.0002951630503257859</v>
@@ -19761,19 +19761,19 @@
         <v>0</v>
       </c>
       <c r="F274">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="G274">
-        <v>0.0170130586720618</v>
+        <v>0.01167923487217215</v>
       </c>
       <c r="H274">
-        <v>0.07003862424130955</v>
+        <v>0.07522530807430568</v>
       </c>
       <c r="I274">
         <v>0</v>
       </c>
       <c r="J274">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="K274">
         <v>0.000633500675067613</v>
@@ -19851,7 +19851,7 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>0.0001471399668935074</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -19899,22 +19899,22 @@
         </is>
       </c>
       <c r="E276">
-        <v>0.8783467773719751</v>
+        <v>0.8942431487952915</v>
       </c>
       <c r="F276">
-        <v>0.7565293360308993</v>
+        <v>0.7609895162773588</v>
       </c>
       <c r="G276">
-        <v>0.1551407025933419</v>
+        <v>0.1418981055729262</v>
       </c>
       <c r="H276">
-        <v>0.2308993930476366</v>
+        <v>0.2216295751333456</v>
       </c>
       <c r="I276">
-        <v>0.002133529519955858</v>
+        <v>0.0009196247930844216</v>
       </c>
       <c r="J276">
-        <v>0.4473974618355711</v>
+        <v>0.4908037520691558</v>
       </c>
       <c r="K276">
         <v>0.001270334230566254</v>
@@ -19986,22 +19986,22 @@
         </is>
       </c>
       <c r="E277">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="F277">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="G277">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="H277">
-        <v>0.009931947765311753</v>
+        <v>0.001839249586168843</v>
       </c>
       <c r="I277">
-        <v>0.01633253632517933</v>
+        <v>0.01232297222733125</v>
       </c>
       <c r="J277">
-        <v>0.0003678499172337687</v>
+        <v>0</v>
       </c>
       <c r="K277">
         <v>0.001735860615072595</v>
@@ -20076,16 +20076,16 @@
         <v>0</v>
       </c>
       <c r="F278">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G278">
         <v>0</v>
       </c>
       <c r="H278">
-        <v>0.0001103549751701306</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>0.5392311936729814</v>
+        <v>0.5653853227883023</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -20151,22 +20151,22 @@
         </is>
       </c>
       <c r="E279">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="G279">
-        <v>0.075708111090675</v>
+        <v>0.05949972411256207</v>
       </c>
       <c r="H279">
-        <v>0.02313775979400405</v>
+        <v>0.006989148427441604</v>
       </c>
       <c r="I279">
-        <v>0.05510391760161854</v>
+        <v>0.04782048924038992</v>
       </c>
       <c r="J279">
-        <v>0.136656244252345</v>
+        <v>0.1006069523634357</v>
       </c>
       <c r="K279">
         <v>0.002867379249405155</v>
@@ -20238,22 +20238,22 @@
         </is>
       </c>
       <c r="E280">
-        <v>0.08203053154313041</v>
+        <v>0.08699650542578628</v>
       </c>
       <c r="F280">
-        <v>0.2151462203421004</v>
+        <v>0.2234688247195145</v>
       </c>
       <c r="G280">
-        <v>6.897185948133162e-05</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>0.09130034945742138</v>
+        <v>0.09564097848077985</v>
       </c>
       <c r="I280">
-        <v>0.1256575317270553</v>
+        <v>0.07228250873643553</v>
       </c>
       <c r="J280">
-        <v>0.271779780516216</v>
+        <v>0.236895346698547</v>
       </c>
       <c r="K280">
         <v>0.007631009937146888</v>
@@ -20334,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>0.003457789221997425</v>
+        <v>0.004598123965422108</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -20448,7 +20448,7 @@
         <v>0</v>
       </c>
       <c r="H283">
-        <v>0.0004414199006805223</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -20496,22 +20496,22 @@
         </is>
       </c>
       <c r="E284">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="F284">
-        <v>0.0002069155784439949</v>
+        <v>0</v>
       </c>
       <c r="G284">
         <v>0.0002758874379253265</v>
       </c>
       <c r="H284">
-        <v>0.03586536693029244</v>
+        <v>0.006989148427441604</v>
       </c>
       <c r="I284">
-        <v>0.1092146404267059</v>
+        <v>0.003494574213720802</v>
       </c>
       <c r="J284">
-        <v>0.0002452332781558457</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K284">
         <v>0.01435348696577313</v>
@@ -20583,19 +20583,19 @@
         </is>
       </c>
       <c r="E285">
-        <v>0.006857773457000973</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="F285">
-        <v>0.000551774875850653</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G285">
-        <v>0.7088927717491263</v>
+        <v>0.652657715652014</v>
       </c>
       <c r="H285">
-        <v>0.005002758874379253</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="I285">
-        <v>0.000551774875850653</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J285">
         <v>0.0002758874379253265</v>
@@ -20670,22 +20670,22 @@
         </is>
       </c>
       <c r="E286">
-        <v>0.001734149609816338</v>
+        <v>0.001655324627551959</v>
       </c>
       <c r="F286">
-        <v>0.0007127092146404267</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G286">
         <v>0</v>
       </c>
       <c r="H286">
-        <v>0.005995953650910428</v>
+        <v>0.007908773220526025</v>
       </c>
       <c r="I286">
         <v>0</v>
       </c>
       <c r="J286">
-        <v>0.01029979768254552</v>
+        <v>0.006713260989516277</v>
       </c>
       <c r="K286">
         <v>0.02586155180578982</v>
@@ -20763,13 +20763,13 @@
         <v>0</v>
       </c>
       <c r="H287">
-        <v>0.0002207099503402612</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I287">
-        <v>0.0002942799337870149</v>
+        <v>0</v>
       </c>
       <c r="J287">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="K287">
         <v>0.02722921008989088</v>
@@ -20838,16 +20838,16 @@
         <v>0</v>
       </c>
       <c r="G288">
-        <v>0.04344307522530808</v>
+        <v>0.03512966709582491</v>
       </c>
       <c r="H288">
-        <v>0.04301544969652382</v>
+        <v>0.04073937833363987</v>
       </c>
       <c r="I288">
-        <v>9.196247930844216e-05</v>
+        <v>0</v>
       </c>
       <c r="J288">
-        <v>0.0001379437189626632</v>
+        <v>0</v>
       </c>
       <c r="K288">
         <v>0.0001736797771393788</v>
@@ -20925,13 +20925,13 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="I289">
         <v>0</v>
       </c>
       <c r="J289">
-        <v>0.03149714916314144</v>
+        <v>0.02547360676843848</v>
       </c>
       <c r="K289">
         <v>0.0001736797771393788</v>
@@ -20994,13 +20994,13 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <v>0.006069523634357183</v>
+        <v>0.004874011403347435</v>
       </c>
       <c r="I290">
         <v>0</v>
       </c>
       <c r="J290">
-        <v>0.002919808718043039</v>
+        <v>0.003034761817178591</v>
       </c>
       <c r="K290">
         <v>0.0001736797771393788</v>
@@ -21069,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <v>0.07780025749494207</v>
+        <v>0.02547360676843848</v>
       </c>
       <c r="K291">
         <v>0.0001857635371940794</v>
@@ -21111,10 +21111,10 @@
         </is>
       </c>
       <c r="E292">
-        <v>0.01142633805407394</v>
+        <v>0.01121942247562994</v>
       </c>
       <c r="F292">
-        <v>0.004755773929950866</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="J292">
-        <v>0.001448409049107964</v>
+        <v>0</v>
       </c>
       <c r="K292">
         <v>0.0001857635371940794</v>
@@ -21189,7 +21189,7 @@
         </is>
       </c>
       <c r="E293">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -21201,10 +21201,10 @@
         <v>0</v>
       </c>
       <c r="I293">
-        <v>0.0616761694561952</v>
+        <v>0.06170682361596469</v>
       </c>
       <c r="J293">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="K293">
         <v>0.0003442837337255326</v>
@@ -21273,16 +21273,16 @@
         <v>0</v>
       </c>
       <c r="G294">
-        <v>0.01405186683832996</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="H294">
-        <v>0.008207651278278463</v>
+        <v>0.002666911899944822</v>
       </c>
       <c r="I294">
-        <v>0.01946539145362025</v>
+        <v>0.01278278462387346</v>
       </c>
       <c r="J294">
-        <v>0.04048648151554166</v>
+        <v>0.03724480411991907</v>
       </c>
       <c r="K294">
         <v>0.0005922051963419331</v>
@@ -21351,22 +21351,22 @@
         </is>
       </c>
       <c r="E295">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>0.000236474946793137</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="G295">
-        <v>0.7750229906198272</v>
+        <v>0.7544601802464594</v>
       </c>
       <c r="H295">
-        <v>0.09874471215743977</v>
+        <v>0.07219054625712709</v>
       </c>
       <c r="I295">
-        <v>0.004168965728649378</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="J295">
-        <v>0.01004690086444731</v>
+        <v>0</v>
       </c>
       <c r="K295">
         <v>0.0007956543179182744</v>
@@ -21441,13 +21441,13 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>5.254998817625266e-05</v>
+        <v>0</v>
       </c>
       <c r="G296">
         <v>0</v>
       </c>
       <c r="H296">
-        <v>0.007816810741217584</v>
+        <v>0.005701673717123414</v>
       </c>
       <c r="I296">
         <v>0</v>
@@ -21510,19 +21510,19 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="G297">
-        <v>0.0003310649255103918</v>
+        <v>0</v>
       </c>
       <c r="H297">
-        <v>0.05591318741953283</v>
+        <v>0.04478572742321132</v>
       </c>
       <c r="I297">
-        <v>0.005732327876892895</v>
+        <v>0</v>
       </c>
       <c r="J297">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="K297">
         <v>0.001016844988787106</v>
@@ -21609,7 +21609,7 @@
         <v>0</v>
       </c>
       <c r="J298">
-        <v>0.03535957329409601</v>
+        <v>0.008276623137759793</v>
       </c>
       <c r="K298">
         <v>0.001016844988787106</v>
@@ -21660,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="H299">
-        <v>0.0004138311568879897</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -21708,22 +21708,22 @@
         </is>
       </c>
       <c r="E300">
-        <v>0.5300257494942063</v>
+        <v>0.6315983078903807</v>
       </c>
       <c r="F300">
-        <v>0.5493838513886334</v>
+        <v>0.5926062166636012</v>
       </c>
       <c r="G300">
-        <v>0.09884127276071362</v>
+        <v>0.01121942247562994</v>
       </c>
       <c r="H300">
-        <v>0.06009748022806695</v>
+        <v>0.06970755931579915</v>
       </c>
       <c r="I300">
-        <v>0.001379437189626632</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="J300">
-        <v>0.2611274599963215</v>
+        <v>0.2450800073569983</v>
       </c>
       <c r="K300">
         <v>0.00103330599819751</v>
@@ -21795,22 +21795,22 @@
         </is>
       </c>
       <c r="E301">
-        <v>0.0002069155784439948</v>
+        <v>0</v>
       </c>
       <c r="F301">
-        <v>0.0001313749704406317</v>
+        <v>0</v>
       </c>
       <c r="G301">
-        <v>0.000257494942063638</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H301">
-        <v>0.1578306051131138</v>
+        <v>0.1175280485561891</v>
       </c>
       <c r="I301">
-        <v>0.3778431733186193</v>
+        <v>0.4517196983630679</v>
       </c>
       <c r="J301">
-        <v>0.2263426521979033</v>
+        <v>0.285359573294096</v>
       </c>
       <c r="K301">
         <v>0.00103330599819751</v>
@@ -21882,7 +21882,7 @@
         </is>
       </c>
       <c r="E302">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -21891,13 +21891,13 @@
         <v>0</v>
       </c>
       <c r="H302">
-        <v>0.0004598123965422108</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0.2686837103794985</v>
+        <v>0.2176751885230826</v>
       </c>
       <c r="J302">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="K302">
         <v>0.001125772004814188</v>
@@ -21966,22 +21966,22 @@
         </is>
       </c>
       <c r="E303">
-        <v>0.1370470847894059</v>
+        <v>0.1425418429280854</v>
       </c>
       <c r="F303">
-        <v>0.1986915052944113</v>
+        <v>0.1947765311752805</v>
       </c>
       <c r="G303">
-        <v>0.0003310649255103917</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H303">
-        <v>0.05395898473422844</v>
+        <v>0.04892403899209122</v>
       </c>
       <c r="I303">
-        <v>0.07166942554104593</v>
+        <v>0.05444178775059776</v>
       </c>
       <c r="J303">
-        <v>0.07858193856906383</v>
+        <v>0.04395806510943535</v>
       </c>
       <c r="K303">
         <v>0.001788113325040619</v>
@@ -22062,13 +22062,13 @@
         <v>0</v>
       </c>
       <c r="H304">
-        <v>0.002620930660290601</v>
+        <v>0.002666911899944823</v>
       </c>
       <c r="I304">
         <v>0</v>
       </c>
       <c r="J304">
-        <v>0.001103549751701306</v>
+        <v>0</v>
       </c>
       <c r="K304">
         <v>0.001844967663089594</v>
@@ -22134,7 +22134,7 @@
         <v>0</v>
       </c>
       <c r="I305">
-        <v>0.002084482864324689</v>
+        <v>0.001103549751701306</v>
       </c>
       <c r="J305">
         <v>0</v>
@@ -22188,10 +22188,10 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <v>0.0002758874379253265</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I306">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="J306">
         <v>0</v>
@@ -22257,13 +22257,13 @@
         <v>0</v>
       </c>
       <c r="H307">
-        <v>0.0002299061982711054</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I307">
         <v>0</v>
       </c>
       <c r="J307">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="K307">
         <v>0.004375788339856157</v>
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="E308">
-        <v>4.598123965422108e-05</v>
+        <v>0</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -22326,13 +22326,13 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <v>0.001862240205995954</v>
+        <v>0.001563362148243517</v>
       </c>
       <c r="I308">
-        <v>0.00340261173441236</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="J308">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="K308">
         <v>0.005345309227789248</v>
@@ -22410,7 +22410,7 @@
         <v>0</v>
       </c>
       <c r="H309">
-        <v>0.001540371528416406</v>
+        <v>0.00128747471031819</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>0.009058304211881552</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -22530,7 +22530,7 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <v>0.002528968180982159</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="K311">
         <v>0.005652294111713833</v>
@@ -22572,22 +22572,22 @@
         </is>
       </c>
       <c r="E312">
-        <v>0.008368585617068236</v>
+        <v>0.003310649255103918</v>
       </c>
       <c r="F312">
-        <v>0.01145589742242308</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="G312">
-        <v>0.01320581202869229</v>
+        <v>0.004046349089571455</v>
       </c>
       <c r="H312">
         <v>0</v>
       </c>
       <c r="I312">
-        <v>0.00211513702409417</v>
+        <v>0.0008276623137759794</v>
       </c>
       <c r="J312">
-        <v>9.196247930844215e-05</v>
+        <v>0</v>
       </c>
       <c r="K312">
         <v>0.006628344247445229</v>
@@ -22668,13 +22668,13 @@
         <v>0</v>
       </c>
       <c r="H313">
-        <v>0.006529336030899393</v>
+        <v>0.002023174544785727</v>
       </c>
       <c r="I313">
-        <v>0.0002452332781558458</v>
+        <v>0</v>
       </c>
       <c r="J313">
-        <v>0.0005287842560235425</v>
+        <v>0</v>
       </c>
       <c r="K313">
         <v>0.008677328768694823</v>
@@ -22737,7 +22737,7 @@
         </is>
       </c>
       <c r="E314">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="I314">
-        <v>0.01100484335724358</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J314">
         <v>0</v>
@@ -22815,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="I315">
         <v>0.0001839249586168843</v>
@@ -22884,10 +22884,10 @@
         <v>0</v>
       </c>
       <c r="H316">
-        <v>0.00126448409049108</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="I316">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="J316">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         </is>
       </c>
       <c r="E317">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -22953,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>0.005908589295567408</v>
+        <v>0.001195512231009748</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -23022,10 +23022,10 @@
         <v>0</v>
       </c>
       <c r="H318">
-        <v>0.001517380908589296</v>
+        <v>0.0006437373551590951</v>
       </c>
       <c r="I318">
-        <v>3.065415976948071e-05</v>
+        <v>0</v>
       </c>
       <c r="J318">
         <v>0</v>
@@ -23082,22 +23082,22 @@
         </is>
       </c>
       <c r="E319">
-        <v>2.299061982711054e-05</v>
+        <v>0</v>
       </c>
       <c r="F319">
-        <v>2.627499408812633e-05</v>
+        <v>0</v>
       </c>
       <c r="G319">
-        <v>0.003089939304763656</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="H319">
-        <v>0.006460364171418061</v>
+        <v>0.003034761817178591</v>
       </c>
       <c r="I319">
-        <v>0.004383544847035742</v>
+        <v>0.00386242413095457</v>
       </c>
       <c r="J319">
-        <v>0.01338054073937833</v>
+        <v>0.003494574213720802</v>
       </c>
       <c r="K319">
         <v>0.02469592643398326</v>
@@ -23169,22 +23169,22 @@
         </is>
       </c>
       <c r="E320">
-        <v>0.003195696155968365</v>
+        <v>0.000551774875850653</v>
       </c>
       <c r="F320">
-        <v>0.0007094248403794109</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="G320">
         <v>0</v>
       </c>
       <c r="H320">
-        <v>0.001816258966341732</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="I320">
         <v>0</v>
       </c>
       <c r="J320">
-        <v>0.003264668015449696</v>
+        <v>0.002299061982711054</v>
       </c>
       <c r="K320">
         <v>0.02671418037667166</v>
@@ -23265,7 +23265,7 @@
         <v>0</v>
       </c>
       <c r="I321">
-        <v>0.003218686775795475</v>
+        <v>0.0003678499172337686</v>
       </c>
       <c r="J321">
         <v>0</v>
@@ -23322,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="I322">
-        <v>0.0002452332781558458</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="J322">
         <v>0</v>
@@ -23376,13 +23376,13 @@
         <v>0</v>
       </c>
       <c r="H323">
-        <v>0.0005057936361964318</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I323">
         <v>0</v>
       </c>
       <c r="J323">
-        <v>0.0004828030163693213</v>
+        <v>0.0001839249586168843</v>
       </c>
       <c r="K323">
         <v>0.02946321162428426</v>
@@ -23445,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <v>0.0003908405370608792</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I324">
         <v>0</v>
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="H325">
-        <v>0.001977193305131506</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="H326">
-        <v>0.0003908405370608792</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <v>0.0003908405370608792</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I327">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <v>0.0008276623137759794</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="K328">
         <v>0.02946321162428426</v>
@@ -23730,7 +23730,7 @@
         <v>0</v>
       </c>
       <c r="H329">
-        <v>0.0003908405370608792</v>
+        <v>9.196247930844215e-05</v>
       </c>
       <c r="I329">
         <v>0</v>
@@ -23793,7 +23793,7 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <v>0.000551774875850653</v>
+        <v>0.0002758874379253265</v>
       </c>
       <c r="K330">
         <v>0.02946321162428426</v>
@@ -23835,22 +23835,22 @@
         </is>
       </c>
       <c r="E331">
-        <v>0.08876678315247379</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="F331">
-        <v>0.1100922252292493</v>
+        <v>0.0007356998344675372</v>
       </c>
       <c r="G331">
-        <v>3.678499172337686e-05</v>
+        <v>0</v>
       </c>
       <c r="H331">
-        <v>0.01223100974802281</v>
+        <v>0.004138311568879897</v>
       </c>
       <c r="I331">
         <v>0</v>
       </c>
       <c r="J331">
-        <v>0.05048740114033475</v>
+        <v>0.0004598123965422107</v>
       </c>
       <c r="K331">
         <v>0.03373769186348231</v>
